--- a/DebitByMobile.xlsx
+++ b/DebitByMobile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>DebitByUsersInSystem</t>
   </si>
@@ -94,13 +94,43 @@
     <t>1.6666</t>
   </si>
   <si>
-    <t>1.4878464818763326</t>
-  </si>
-  <si>
     <t>Demande des mobiles fixe (100packet de taille 5u)</t>
   </si>
   <si>
     <t>Distance des mobiles fixe </t>
+  </si>
+  <si>
+    <t>1.266325224071703</t>
+  </si>
+  <si>
+    <t>1.4169636493228794</t>
+  </si>
+  <si>
+    <t>1.5093011563599799</t>
+  </si>
+  <si>
+    <t>1.5603279968762203</t>
+  </si>
+  <si>
+    <t>1.5935320228281546</t>
+  </si>
+  <si>
+    <t>1.6122448979591837</t>
+  </si>
+  <si>
+    <t>1.6244186046511628</t>
+  </si>
+  <si>
+    <t>1.635861786955633</t>
+  </si>
+  <si>
+    <t>1.6616</t>
+  </si>
+  <si>
+    <t>1.665</t>
+  </si>
+  <si>
+    <t>1.666</t>
   </si>
   <si>
     <t>Demande des mobiles alea (0-200packet de taille 5u)</t>
@@ -282,7 +312,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -318,7 +348,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Delai par nbUtilisateur/Charge</a:t>
+              <a:t>Débit par nbUtilisateur/Charge</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -434,7 +464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuille1!$D$4:$D$20</c:f>
+              <c:f>Feuille1!$B$4:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -442,57 +472,57 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -598,7 +628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuille1!$E$4:$E$20</c:f>
+              <c:f>Feuille1!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -606,63 +636,63 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>329</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>581</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40100732"/>
-        <c:axId val="78950053"/>
+        <c:axId val="40760452"/>
+        <c:axId val="45076048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40100732"/>
+        <c:axId val="40760452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,12 +765,589 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78950053"/>
+        <c:crossAx val="45076048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78950053"/>
+        <c:axId val="45076048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Débit total système</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40760452"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Delai par nbUtilisateur/Charge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuille1!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuille1!$D$4:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuille1!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuille1!$E$4:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="95952971"/>
+        <c:axId val="34488078"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95952971"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Nombre Utilisateur/Charge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34488078"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34488078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +1429,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40100732"/>
+        <c:crossAx val="95952971"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -859,7 +1466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1235,11 +1842,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94017232"/>
-        <c:axId val="67025759"/>
+        <c:axId val="3011402"/>
+        <c:axId val="8622352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94017232"/>
+        <c:axId val="3011402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,12 +1919,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67025759"/>
+        <c:crossAx val="8622352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67025759"/>
+        <c:axId val="8622352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +2006,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94017232"/>
+        <c:crossAx val="3011402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,7 +2043,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1812,11 +2419,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44473924"/>
-        <c:axId val="19576580"/>
+        <c:axId val="67395444"/>
+        <c:axId val="22955330"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44473924"/>
+        <c:axId val="67395444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,12 +2496,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19576580"/>
+        <c:crossAx val="22955330"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19576580"/>
+        <c:axId val="22955330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +2583,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44473924"/>
+        <c:crossAx val="67395444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2176,49 +2783,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>277</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>483</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>552</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>609</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>666</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>724</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>780</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>827</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>883</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,63 +2944,63 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>171</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>383</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>475</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>552</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>624</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>696</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>770</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>841</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>913</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>984</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1058</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1129</c:v>
+                  <c:v>1156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="26040953"/>
-        <c:axId val="73876003"/>
+        <c:axId val="92460127"/>
+        <c:axId val="48904097"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26040953"/>
+        <c:axId val="92460127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,12 +3073,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73876003"/>
+        <c:crossAx val="48904097"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73876003"/>
+        <c:axId val="48904097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +3160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26040953"/>
+        <c:crossAx val="92460127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2590,7 +3197,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2750,28 +3357,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>333</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>499</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>500</c:v>
@@ -2914,22 +3521,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>263</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>499</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>500</c:v>
@@ -2966,11 +3573,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90592587"/>
-        <c:axId val="45747107"/>
+        <c:axId val="89794135"/>
+        <c:axId val="1966745"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90592587"/>
+        <c:axId val="89794135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,12 +3650,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45747107"/>
+        <c:crossAx val="1966745"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45747107"/>
+        <c:axId val="1966745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90592587"/>
+        <c:crossAx val="89794135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3167,7 +3774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3327,40 +3934,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.32475397426192</c:v>
+                  <c:v>1.2663252240717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1.41696364932288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.57301682692308</c:v>
+                  <c:v>1.50930115635998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.61259191176471</c:v>
+                  <c:v>1.56032799687622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6503300660132</c:v>
+                  <c:v>1.59353202282815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6628</c:v>
+                  <c:v>1.61224489795918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6654</c:v>
+                  <c:v>1.62441860465116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6662</c:v>
+                  <c:v>1.63586178695563</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.6616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.666</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.6664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6664</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6666</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.6666</c:v>
@@ -3491,63 +4098,63 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.32727272727273</c:v>
+                  <c:v>1.26844783715013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32415094339623</c:v>
+                  <c:v>1.26977040816327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.32456362256514</c:v>
+                  <c:v>1.26790227464195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.32306461292258</c:v>
+                  <c:v>1.27055449330784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3218</c:v>
+                  <c:v>1.27081218274112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3236</c:v>
+                  <c:v>1.26892006802721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.323</c:v>
+                  <c:v>1.2706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.323</c:v>
+                  <c:v>1.269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.323</c:v>
+                  <c:v>1.2694</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3232</c:v>
+                  <c:v>1.2694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3238</c:v>
+                  <c:v>1.2694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.322</c:v>
+                  <c:v>1.269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3234</c:v>
+                  <c:v>1.2698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3236</c:v>
+                  <c:v>1.2698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3226</c:v>
+                  <c:v>1.2696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3242</c:v>
+                  <c:v>1.2692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67085262"/>
-        <c:axId val="16770362"/>
+        <c:axId val="76200642"/>
+        <c:axId val="39648976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67085262"/>
+        <c:axId val="76200642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,12 +4227,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16770362"/>
+        <c:crossAx val="39648976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16770362"/>
+        <c:axId val="39648976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +4314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67085262"/>
+        <c:crossAx val="76200642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3744,7 +4351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4120,11 +4727,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8306401"/>
-        <c:axId val="7685269"/>
+        <c:axId val="24101356"/>
+        <c:axId val="33736754"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8306401"/>
+        <c:axId val="24101356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,12 +4804,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7685269"/>
+        <c:crossAx val="33736754"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7685269"/>
+        <c:axId val="33736754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,584 +4891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8306401"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Débit par nbUtilisateur/Charge</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuille1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SNR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuille1!$A$4:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuille1!$B$4:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>832</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>833</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuille1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuille1!$A$4:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuille1!$C$4:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="97879923"/>
-        <c:axId val="63346101"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="97879923"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Nombre Utilisateur/Charge</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63346101"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="63346101"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Débit total système</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97879923"/>
+        <c:crossAx val="24101356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5150,8 +5180,8 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L60" activeCellId="0" sqref="L60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K63" activeCellId="0" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5884,19 +5914,19 @@
         <v>5</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.32475397426192</v>
+        <v>1.2663252240717</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>1.32727272727273</v>
+        <v>1.26844783715013</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,22 +5940,22 @@
         <v>196</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>263</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>1.41696364932288</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>1.32415094339623</v>
+        <v>1.26977040816327</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,22 +5969,22 @@
         <v>294</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1.57301682692308</v>
+        <v>1.50930115635998</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>1.32456362256514</v>
+        <v>1.26790227464195</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,22 +5998,22 @@
         <v>400</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>434</v>
+        <v>255</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>499</v>
+        <v>314</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1.61259191176471</v>
+        <v>1.56032799687622</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>1.32306461292258</v>
+        <v>1.27055449330784</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,22 +6027,22 @@
         <v>490</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>499</v>
+        <v>314</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>500</v>
+        <v>392</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1.6503300660132</v>
+        <v>1.59353202282815</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>1.3218</v>
+        <v>1.27081218274112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,22 +6056,22 @@
         <v>594</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>383</v>
+        <v>9</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1.6628</v>
+        <v>1.61224489795918</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>1.3236</v>
+        <v>1.26892006802721</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,22 +6085,22 @@
         <v>634</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>475</v>
+        <v>53</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>500</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1.6654</v>
+        <v>1.62441860465116</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>1.323</v>
+        <v>1.2706</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,22 +6114,22 @@
         <v>634</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>552</v>
+        <v>189</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>500</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1.6662</v>
+        <v>1.63586178695563</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>1.323</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,10 +6143,10 @@
         <v>634</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>624</v>
+        <v>410</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>500</v>
@@ -6125,10 +6155,10 @@
         <v>500</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1.6664</v>
+        <v>1.6616</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>1.323</v>
+        <v>1.2694</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,10 +6172,10 @@
         <v>634</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>552</v>
+        <v>117</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>500</v>
@@ -6154,10 +6184,10 @@
         <v>500</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1.6664</v>
+        <v>1.665</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>1.3232</v>
+        <v>1.2694</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,10 +6201,10 @@
         <v>634</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>609</v>
+        <v>237</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>500</v>
@@ -6183,10 +6213,10 @@
         <v>500</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1.6666</v>
+        <v>1.666</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>1.3238</v>
+        <v>1.2694</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,10 +6230,10 @@
         <v>635</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>666</v>
+        <v>363</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>500</v>
@@ -6212,10 +6242,10 @@
         <v>500</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1.6666</v>
+        <v>1.6664</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>1.322</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,10 +6259,10 @@
         <v>634</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>724</v>
+        <v>451</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>500</v>
@@ -6244,7 +6274,7 @@
         <v>1.6666</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>1.3234</v>
+        <v>1.2698</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,10 +6288,10 @@
         <v>634</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>780</v>
+        <v>565</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>984</v>
+        <v>1001</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>500</v>
@@ -6273,7 +6303,7 @@
         <v>1.6666</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>1.3236</v>
+        <v>1.2698</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6287,10 +6317,10 @@
         <v>634</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>827</v>
+        <v>654</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>500</v>
@@ -6302,7 +6332,7 @@
         <v>1.6666</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>1.3226</v>
+        <v>1.2696</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,10 +6346,10 @@
         <v>634</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>883</v>
+        <v>710</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1129</v>
+        <v>1156</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>500</v>
@@ -6331,7 +6361,7 @@
         <v>1.6666</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>1.3242</v>
+        <v>1.2692</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,13 +6390,13 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O70" s="2"/>
       <c r="P70" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O71" s="2"/>
       <c r="P71" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,162 +6422,162 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O79" s="2"/>
-      <c r="R79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O80" s="2"/>
-      <c r="R80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O81" s="2"/>
       <c r="R81" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S81" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O82" s="2"/>
       <c r="R82" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O83" s="2"/>
       <c r="R83" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S83" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O84" s="2"/>
       <c r="R84" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S84" s="0" t="n">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O85" s="2"/>
       <c r="R85" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S85" s="0" t="n">
-        <v>137</v>
+        <v>4</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O86" s="2"/>
       <c r="R86" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S86" s="0" t="n">
-        <v>277</v>
+        <v>5</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O87" s="2"/>
       <c r="R87" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S87" s="0" t="n">
-        <v>400</v>
+        <v>6</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O88" s="2"/>
       <c r="R88" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S88" s="0" t="n">
-        <v>483</v>
+        <v>7</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O89" s="2"/>
       <c r="R89" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S89" s="0" t="n">
-        <v>552</v>
+        <v>8</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O90" s="2"/>
       <c r="R90" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S90" s="0" t="n">
-        <v>609</v>
+        <v>9</v>
+      </c>
+      <c r="S90" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O91" s="2"/>
       <c r="R91" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="S91" s="0" t="n">
-        <v>666</v>
+        <v>10</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O92" s="2"/>
       <c r="R92" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="S92" s="0" t="n">
-        <v>724</v>
+        <v>11</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O93" s="2"/>
       <c r="R93" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="S93" s="0" t="n">
-        <v>780</v>
+        <v>12</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O94" s="2"/>
       <c r="R94" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="S94" s="0" t="n">
-        <v>827</v>
+        <v>13</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O95" s="2"/>
       <c r="R95" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="S95" s="0" t="n">
-        <v>883</v>
+        <v>14</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O96" s="2"/>
+      <c r="R96" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O97" s="2"/>
+      <c r="R97" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O98" s="2"/>
@@ -6677,13 +6707,13 @@
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O113" s="2"/>
       <c r="P113" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O114" s="2"/>
       <c r="P114" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,7 +6878,7 @@
         <v>3</v>
       </c>
       <c r="N180" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DebitByMobile.xlsx
+++ b/DebitByMobile.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikon\Documents\git\Beamforming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>DebitByUsersInSystem</t>
-  </si>
-  <si>
-    <t>SNR</t>
   </si>
   <si>
     <t>RR</t>
@@ -97,7 +98,7 @@
     <t>Demande des mobiles fixe (100packet de taille 5u)</t>
   </si>
   <si>
-    <t>Distance des mobiles fixe </t>
+    <t>Distance des mobiles fixe</t>
   </si>
   <si>
     <t>1.266325224071703</t>
@@ -138,43 +139,17 @@
   <si>
     <t>Debit</t>
   </si>
+  <si>
+    <t>Max SNR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -194,7 +169,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -202,53 +177,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -307,15 +248,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -324,26 +283,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -357,6 +316,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -369,15 +329,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -395,12 +352,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -523,6 +493,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DAF-4E54-8B08-8E0667E27738}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -539,12 +514,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -554,17 +526,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -687,7 +672,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DAF-4E54-8B08-8E0667E27738}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="40760452"/>
         <c:axId val="45076048"/>
       </c:scatterChart>
@@ -705,26 +703,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -743,26 +741,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45076048"/>
@@ -780,7 +780,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -792,26 +792,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -830,26 +830,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40760452"/>
@@ -860,7 +862,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -877,22 +879,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -901,26 +911,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -934,6 +944,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -946,15 +957,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -972,12 +980,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1081,25 +1102,15 @@
                 <c:pt idx="11">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB11-4913-8830-EF12EEA51259}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1116,12 +1127,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1131,17 +1139,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1242,29 +1263,24 @@
                 <c:pt idx="10">
                   <c:v>581</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB11-4913-8830-EF12EEA51259}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="95952971"/>
         <c:axId val="34488078"/>
       </c:scatterChart>
@@ -1282,26 +1298,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1320,26 +1336,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="34488078"/>
@@ -1357,7 +1375,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1369,26 +1387,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1407,26 +1425,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95952971"/>
@@ -1437,7 +1457,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1454,22 +1474,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1478,26 +1506,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -1511,6 +1539,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1523,15 +1552,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1549,12 +1575,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1677,6 +1716,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F40-41F4-97BF-5350341A62E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1693,12 +1737,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1708,17 +1749,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1841,7 +1895,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F40-41F4-97BF-5350341A62E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="3011402"/>
         <c:axId val="8622352"/>
       </c:scatterChart>
@@ -1859,26 +1926,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1897,26 +1964,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="8622352"/>
@@ -1934,7 +2003,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1946,26 +2015,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1984,26 +2053,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3011402"/>
@@ -2014,7 +2085,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2031,22 +2102,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2055,26 +2134,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -2088,6 +2167,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2100,15 +2180,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2126,12 +2203,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2254,6 +2344,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF2C-4A94-AFB5-AE04EA0FEFF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2270,12 +2365,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2285,17 +2377,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2418,7 +2523,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF2C-4A94-AFB5-AE04EA0FEFF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="67395444"/>
         <c:axId val="22955330"/>
       </c:scatterChart>
@@ -2436,26 +2554,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -2474,26 +2592,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="22955330"/>
@@ -2511,7 +2631,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2523,26 +2643,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -2561,26 +2681,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67395444"/>
@@ -2591,7 +2713,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2608,22 +2730,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2632,26 +2762,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -2665,6 +2795,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2677,15 +2808,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2703,12 +2831,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2831,6 +2972,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A61C-4183-A8BA-A14239E3770D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2847,12 +2993,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2862,17 +3005,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2995,7 +3151,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A61C-4183-A8BA-A14239E3770D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="92460127"/>
         <c:axId val="48904097"/>
       </c:scatterChart>
@@ -3013,26 +3182,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3051,26 +3220,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48904097"/>
@@ -3088,7 +3259,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -3100,26 +3271,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3138,26 +3309,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92460127"/>
@@ -3168,7 +3341,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -3185,22 +3358,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3209,26 +3390,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -3242,6 +3423,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3254,15 +3436,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -3280,12 +3459,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3408,6 +3600,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24AB-4C5A-9A75-CA541CFCFACE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3424,12 +3621,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3439,17 +3633,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3572,7 +3779,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24AB-4C5A-9A75-CA541CFCFACE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="89794135"/>
         <c:axId val="1966745"/>
       </c:scatterChart>
@@ -3590,26 +3810,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3628,26 +3848,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1966745"/>
@@ -3665,7 +3887,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -3677,26 +3899,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3715,26 +3937,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89794135"/>
@@ -3745,7 +3969,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -3762,22 +3986,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3786,26 +4018,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -3819,6 +4051,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3831,15 +4064,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -3857,12 +4087,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3928,7 +4171,7 @@
             <c:numRef>
               <c:f>Feuille1!$H$52:$H$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3937,10 +4180,10 @@
                   <c:v>1.2663252240717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41696364932288</c:v>
+                  <c:v>1.4169636493228801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.50930115635998</c:v>
+                  <c:v>1.5093011563599801</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.56032799687622</c:v>
@@ -3949,10 +4192,10 @@
                   <c:v>1.59353202282815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.61224489795918</c:v>
+                  <c:v>1.6122448979591799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.62441860465116</c:v>
+                  <c:v>1.6244186046511599</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.63586178695563</c:v>
@@ -3964,27 +4207,32 @@
                   <c:v>1.665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.666</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6664</c:v>
+                  <c:v>1.6664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE87-4EB2-921E-516D7A63BC14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4001,12 +4249,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4016,17 +4261,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4092,7 +4350,7 @@
             <c:numRef>
               <c:f>Feuille1!$I$52:$I$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4101,37 +4359,37 @@
                   <c:v>1.26844783715013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26977040816327</c:v>
+                  <c:v>1.2697704081632699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26790227464195</c:v>
+                  <c:v>1.2679022746419499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.27055449330784</c:v>
+                  <c:v>1.2705544933078401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.27081218274112</c:v>
+                  <c:v>1.2708121827411201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26892006802721</c:v>
+                  <c:v>1.2689200680272099</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.269</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.269</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.2698</c:v>
@@ -4140,16 +4398,29 @@
                   <c:v>1.2698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2696</c:v>
+                  <c:v>1.2696000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2692</c:v>
+                  <c:v>1.2692000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE87-4EB2-921E-516D7A63BC14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="76200642"/>
         <c:axId val="39648976"/>
       </c:scatterChart>
@@ -4167,26 +4438,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4205,26 +4476,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39648976"/>
@@ -4242,7 +4515,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -4254,26 +4527,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4292,26 +4565,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="76200642"/>
@@ -4322,7 +4597,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -4339,22 +4614,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4363,26 +4646,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -4396,6 +4679,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4408,15 +4692,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNR</c:v>
+                  <c:v>Max SNR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -4434,12 +4715,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4505,19 +4799,16 @@
             <c:numRef>
               <c:f>Feuille1!$H$4:$H$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.32493368700265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49067859806115</c:v>
+                  <c:v>1.4906785980611501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5742782152231</c:v>
+                  <c:v>1.5742782152231001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.61510500807754</c:v>
@@ -4529,39 +4820,44 @@
                   <c:v>1.64266155531216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.64682352941176</c:v>
+                  <c:v>1.6468235294117599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.64995874587459</c:v>
+                  <c:v>1.6499587458745899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.66533306661332</c:v>
+                  <c:v>1.6653330666133199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6664</c:v>
+                  <c:v>1.6664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E607-4DAE-B892-0BF8EEB8E969}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4578,12 +4874,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4593,17 +4886,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4669,19 +4975,16 @@
             <c:numRef>
               <c:f>Feuille1!$I$4:$I$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.32493368700265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32559681697613</c:v>
+                  <c:v>1.3255968169761301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.32464664310954</c:v>
+                  <c:v>1.3246466431095401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.32417218543046</c:v>
@@ -4702,7 +5005,7 @@
                   <c:v>1.323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.324</c:v>
+                  <c:v>1.3240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.323</c:v>
@@ -4714,19 +5017,32 @@
                   <c:v>1.323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3238</c:v>
+                  <c:v>1.3238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3236</c:v>
+                  <c:v>1.3236000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3234</c:v>
+                  <c:v>1.3233999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E607-4DAE-B892-0BF8EEB8E969}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="24101356"/>
         <c:axId val="33736754"/>
       </c:scatterChart>
@@ -4744,26 +5060,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4782,26 +5098,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="33736754"/>
@@ -4819,7 +5137,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -4831,26 +5149,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4869,26 +5187,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="24101356"/>
@@ -4899,7 +5219,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -4916,20 +5236,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4943,14 +5269,20 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5600880" y="6806520"/>
-        <a:ext cx="5759640" cy="3269160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4973,14 +5305,20 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5639400" y="9970920"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5003,14 +5341,20 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="9986040"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5033,14 +5377,20 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5672160" y="13799520"/>
-        <a:ext cx="5759640" cy="3314520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5060,17 +5410,23 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>53640</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>370</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5672880" y="17016480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5093,14 +5449,20 @@
       <xdr:row>151</xdr:row>
       <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="17033760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5123,14 +5485,20 @@
       <xdr:row>132</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="13791240"/>
-        <a:ext cx="5759640" cy="3404160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5153,14 +5521,20 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6836760"/>
-        <a:ext cx="5759640" cy="3322800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5173,1198 +5547,1486 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA197"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K63" activeCellId="0" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.32493368700265</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.32493368700265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>199</v>
+      </c>
+      <c r="C6">
+        <v>199</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>134</v>
+      </c>
+      <c r="G6">
+        <v>151</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.4906785980611501</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.3255968169761301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>299</v>
+      </c>
+      <c r="C7">
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>190</v>
+      </c>
+      <c r="G7">
+        <v>226</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5742782152231001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.3246466431095401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>399</v>
+      </c>
+      <c r="C8">
+        <v>399</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>247</v>
+      </c>
+      <c r="G8">
+        <v>302</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.61510500807754</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.32417218543046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>499</v>
+      </c>
+      <c r="C9">
+        <v>499</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>306</v>
+      </c>
+      <c r="G9">
+        <v>377</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.63206007182501</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.32458929517753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>599</v>
+      </c>
+      <c r="C10">
+        <v>599</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>365</v>
+      </c>
+      <c r="G10">
+        <v>453</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.64266155531216</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.32194799471133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>699</v>
+      </c>
+      <c r="C11">
+        <v>662</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>425</v>
+      </c>
+      <c r="G11">
+        <v>499</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.6468235294117599</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.32366473294659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>799</v>
+      </c>
+      <c r="C12">
+        <v>661</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>137</v>
+      </c>
+      <c r="F12">
+        <v>484</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.6499587458745899</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.3228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>832</v>
+      </c>
+      <c r="C13">
+        <v>661</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>329</v>
+      </c>
+      <c r="F13">
+        <v>499</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.6653330666133199</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>833</v>
+      </c>
+      <c r="C14">
+        <v>662</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>581</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.3240000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B15">
+        <v>833</v>
+      </c>
+      <c r="C15">
+        <v>661</v>
+      </c>
+      <c r="D15">
+        <v>243</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>833</v>
+      </c>
+      <c r="C16">
+        <v>662</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.3244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>833</v>
+      </c>
+      <c r="C17">
+        <v>661</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>833</v>
+      </c>
+      <c r="C18">
+        <v>661</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.3238000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>833</v>
+      </c>
+      <c r="C19">
+        <v>661</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.3236000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>833</v>
+      </c>
+      <c r="C20">
+        <v>662</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.3233999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="20.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z31">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="AA31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>7</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>9</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>11</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>12</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>13</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>14</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>15</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="26:27" ht="19.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="n">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="C52">
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B53">
+        <v>95</v>
+      </c>
+      <c r="C53">
         <v>99</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F53">
+        <v>77</v>
+      </c>
+      <c r="G53">
+        <v>79</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.2663252240717</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.26844783715013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>192</v>
+      </c>
+      <c r="C54">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>142</v>
+      </c>
+      <c r="G54">
+        <v>157</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.4169636493228801</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.2697704081632699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>296</v>
+      </c>
+      <c r="C55">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>199</v>
+      </c>
+      <c r="G55">
+        <v>235</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.5093011563599801</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.2679022746419499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1.32493368700265</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1.32493368700265</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B56">
+        <v>397</v>
+      </c>
+      <c r="C56">
+        <v>400</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>255</v>
+      </c>
+      <c r="G56">
+        <v>314</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.56032799687622</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.2705544933078401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>134</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1.49067859806115</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1.32559681697613</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>299</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>299</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <v>490</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>314</v>
+      </c>
+      <c r="G57">
+        <v>392</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.59353202282815</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.2708121827411201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>226</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1.5742782152231</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1.32464664310954</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B58">
+        <v>595</v>
+      </c>
+      <c r="C58">
+        <v>594</v>
+      </c>
+      <c r="D58">
         <v>7</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>247</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>302</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1.61510500807754</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1.32417218543046</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>499</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>499</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>373</v>
+      </c>
+      <c r="G58">
+        <v>472</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.6122448979591799</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.2689200680272099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>306</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>377</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1.63206007182501</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1.32458929517753</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>599</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>599</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="B59">
+        <v>698</v>
+      </c>
+      <c r="C59">
+        <v>634</v>
+      </c>
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>365</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>453</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1.64266155531216</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1.32194799471133</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>699</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="E59">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>431</v>
+      </c>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.6244186046511599</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.2706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>425</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>499</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1.64682352941176</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1.32366473294659</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>799</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>484</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="B60">
+        <v>800</v>
+      </c>
+      <c r="C60">
+        <v>634</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>189</v>
+      </c>
+      <c r="F60">
+        <v>488</v>
+      </c>
+      <c r="G60">
         <v>500</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>1.64995874587459</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1.3228</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H60" s="1">
+        <v>1.63586178695563</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B61">
+        <v>831</v>
+      </c>
+      <c r="C61">
+        <v>634</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>410</v>
+      </c>
+      <c r="F61">
+        <v>500</v>
+      </c>
+      <c r="G61">
+        <v>500</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.6616</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>833</v>
+      </c>
+      <c r="C62">
+        <v>634</v>
+      </c>
+      <c r="D62">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>656</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62">
+        <v>500</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.665</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
         <v>832</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>329</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>499</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="C63">
+        <v>634</v>
+      </c>
+      <c r="D63">
+        <v>237</v>
+      </c>
+      <c r="E63">
+        <v>761</v>
+      </c>
+      <c r="F63">
         <v>500</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>1.66533306661332</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1.323</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="G63">
+        <v>500</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
         <v>833</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>581</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="C64">
+        <v>635</v>
+      </c>
+      <c r="D64">
+        <v>363</v>
+      </c>
+      <c r="E64">
+        <v>843</v>
+      </c>
+      <c r="F64">
         <v>500</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G64">
         <v>500</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>1.6664</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1.324</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="H64" s="1">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
         <v>833</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>243</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="C65">
+        <v>634</v>
+      </c>
+      <c r="D65">
+        <v>451</v>
+      </c>
+      <c r="E65">
+        <v>925</v>
+      </c>
+      <c r="F65">
         <v>500</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G65">
         <v>500</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1.323</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="H65" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1.2698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66">
         <v>833</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="C66">
+        <v>634</v>
+      </c>
+      <c r="D66">
+        <v>565</v>
+      </c>
+      <c r="E66">
+        <v>1001</v>
+      </c>
+      <c r="F66">
         <v>500</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G66">
         <v>500</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1.3244</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="H66" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.2698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67">
         <v>833</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="C67">
+        <v>634</v>
+      </c>
+      <c r="D67">
+        <v>654</v>
+      </c>
+      <c r="E67">
+        <v>1078</v>
+      </c>
+      <c r="F67">
         <v>500</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G67">
         <v>500</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>1.323</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="H67" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1.2696000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
         <v>833</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="C68">
+        <v>634</v>
+      </c>
+      <c r="D68">
+        <v>710</v>
+      </c>
+      <c r="E68">
+        <v>1156</v>
+      </c>
+      <c r="F68">
         <v>500</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G68">
         <v>500</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1.3238</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1.3236</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1.3234</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA37" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z38" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z39" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA39" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z40" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA40" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA41" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z42" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA42" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z43" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA43" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z44" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z45" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA45" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z46" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA46" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z47" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA47" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>1.2663252240717</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>1.26844783715013</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>1.41696364932288</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>1.26977040816327</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>296</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>294</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>235</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>1.50930115635998</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>1.26790227464195</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>397</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>314</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>1.56032799687622</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>1.27055449330784</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>490</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>314</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>392</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>1.59353202282815</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>1.27081218274112</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>595</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>594</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>373</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>472</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>1.61224489795918</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>1.26892006802721</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>698</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>431</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>1.62441860465116</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>1.2706</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>189</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>488</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>1.63586178695563</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>1.269</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>410</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>1.6616</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>656</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>1.665</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>832</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>761</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>1.666</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>363</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>843</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>1.6664</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>1.269</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>451</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>925</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>1.2698</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>565</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I66" s="1" t="n">
-        <v>1.2698</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>654</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>1078</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>1.2696</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>833</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>710</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>1156</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>1.2692</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.2692000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6387,232 +7049,232 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O70" s="2"/>
-      <c r="P70" s="0" t="s">
+      <c r="P70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O71" s="2"/>
+      <c r="P71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O71" s="2"/>
-      <c r="P71" s="0" t="s">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O81" s="2"/>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O82" s="2"/>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O81" s="2"/>
-      <c r="R81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" s="0" t="s">
+    <row r="83" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O83" s="2"/>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O84" s="2"/>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O85" s="2"/>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O86" s="2"/>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O87" s="2"/>
+      <c r="R87">
+        <v>6</v>
+      </c>
+      <c r="S87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O88" s="2"/>
+      <c r="R88">
+        <v>7</v>
+      </c>
+      <c r="S88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O89" s="2"/>
+      <c r="R89">
+        <v>8</v>
+      </c>
+      <c r="S89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O90" s="2"/>
+      <c r="R90">
+        <v>9</v>
+      </c>
+      <c r="S90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O91" s="2"/>
+      <c r="R91">
+        <v>10</v>
+      </c>
+      <c r="S91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O92" s="2"/>
+      <c r="R92">
+        <v>11</v>
+      </c>
+      <c r="S92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O93" s="2"/>
+      <c r="R93">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O82" s="2"/>
-      <c r="R82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S82" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O83" s="2"/>
-      <c r="R83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S83" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O84" s="2"/>
-      <c r="R84" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S84" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O85" s="2"/>
-      <c r="R85" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S85" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O86" s="2"/>
-      <c r="R86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S86" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O87" s="2"/>
-      <c r="R87" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S87" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O88" s="2"/>
-      <c r="R88" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S88" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O89" s="2"/>
-      <c r="R89" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S89" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O90" s="2"/>
-      <c r="R90" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S90" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O91" s="2"/>
-      <c r="R91" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S91" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O92" s="2"/>
-      <c r="R92" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S92" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O93" s="2"/>
-      <c r="R93" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="S93" s="0" t="s">
+      <c r="S93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O94" s="2"/>
+      <c r="R94">
+        <v>13</v>
+      </c>
+      <c r="S94" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O94" s="2"/>
-      <c r="R94" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="S94" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O95" s="2"/>
-      <c r="R95" s="0" t="n">
+      <c r="R95">
         <v>14</v>
       </c>
-      <c r="S95" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O96" s="2"/>
-      <c r="R96" s="0" t="n">
+      <c r="R96">
         <v>15</v>
       </c>
-      <c r="S96" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O97" s="2"/>
-      <c r="R97" s="0" t="n">
+      <c r="R97">
         <v>16</v>
       </c>
-      <c r="S97" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6635,7 +7297,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6658,7 +7320,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6681,7 +7343,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6704,130 +7366,130 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O113" s="2"/>
-      <c r="P113" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O114" s="2"/>
-      <c r="P114" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6850,7 +7512,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6873,156 +7535,154 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M180" s="0" t="s">
+    <row r="180" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>2</v>
+      </c>
+      <c r="N180" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M184">
         <v>3</v>
       </c>
-      <c r="N180" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" s="0" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M183" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N183" s="0" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M184" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N184" s="0" t="n">
+      <c r="N184">
         <v>294</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M185" s="0" t="n">
+    <row r="185" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M185">
         <v>4</v>
       </c>
-      <c r="N185" s="0" t="n">
+      <c r="N185">
         <v>400</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M186" s="0" t="n">
+    <row r="186" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M186">
         <v>5</v>
       </c>
-      <c r="N186" s="0" t="n">
+      <c r="N186">
         <v>490</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M187" s="0" t="n">
+    <row r="187" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M187">
         <v>6</v>
       </c>
-      <c r="N187" s="0" t="n">
+      <c r="N187">
         <v>594</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M188" s="0" t="n">
+    <row r="188" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M188">
         <v>7</v>
       </c>
-      <c r="N188" s="0" t="n">
+      <c r="N188">
         <v>634</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M189" s="0" t="n">
+    <row r="189" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M189">
         <v>8</v>
       </c>
-      <c r="N189" s="0" t="n">
+      <c r="N189">
         <v>634</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M190" s="0" t="n">
+    <row r="190" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M190">
         <v>9</v>
       </c>
-      <c r="N190" s="0" t="n">
+      <c r="N190">
         <v>634</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M191" s="0" t="n">
+    <row r="191" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M191">
         <v>10</v>
       </c>
-      <c r="N191" s="0" t="n">
+      <c r="N191">
         <v>634</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M192" s="0" t="n">
+    <row r="192" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M192">
         <v>11</v>
       </c>
-      <c r="N192" s="0" t="n">
+      <c r="N192">
         <v>634</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M193" s="0" t="n">
+    <row r="193" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M193">
         <v>12</v>
       </c>
-      <c r="N193" s="0" t="n">
+      <c r="N193">
         <v>635</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M194" s="0" t="n">
+    <row r="194" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M194">
         <v>13</v>
       </c>
-      <c r="N194" s="0" t="n">
+      <c r="N194">
         <v>634</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M195" s="0" t="n">
+    <row r="195" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M195">
         <v>14</v>
       </c>
-      <c r="N195" s="0" t="n">
+      <c r="N195">
         <v>634</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M196" s="0" t="n">
+    <row r="196" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M196">
         <v>15</v>
       </c>
-      <c r="N196" s="0" t="n">
+      <c r="N196">
         <v>634</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M197" s="0" t="n">
+    <row r="197" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M197">
         <v>16</v>
       </c>
-      <c r="N197" s="0" t="n">
+      <c r="N197">
         <v>634</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
